--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Psen1-Notch4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Psen1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H2">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I2">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J2">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.9110121915341</v>
+        <v>36.01682133333333</v>
       </c>
       <c r="N2">
-        <v>30.9110121915341</v>
+        <v>108.050464</v>
       </c>
       <c r="O2">
-        <v>0.8971396701936101</v>
+        <v>0.888210824651586</v>
       </c>
       <c r="P2">
-        <v>0.8971396701936101</v>
+        <v>0.8882108246515859</v>
       </c>
       <c r="Q2">
-        <v>244.2491081141829</v>
+        <v>348.4932886644906</v>
       </c>
       <c r="R2">
-        <v>244.2491081141829</v>
+        <v>3136.439597980416</v>
       </c>
       <c r="S2">
-        <v>0.04519189087118247</v>
+        <v>0.05239645011360498</v>
       </c>
       <c r="T2">
-        <v>0.04519189087118247</v>
+        <v>0.05239645011360498</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H3">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I3">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J3">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.647754508802609</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N3">
-        <v>0.647754508802609</v>
+        <v>1.966766</v>
       </c>
       <c r="O3">
-        <v>0.01879997532247603</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="P3">
-        <v>0.01879997532247603</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="Q3">
-        <v>5.118352646352661</v>
+        <v>6.343376289189334</v>
       </c>
       <c r="R3">
-        <v>5.118352646352661</v>
+        <v>57.09038660270401</v>
       </c>
       <c r="S3">
-        <v>0.0009470169042585176</v>
+        <v>0.0009537354379536439</v>
       </c>
       <c r="T3">
-        <v>0.0009470169042585176</v>
+        <v>0.0009537354379536439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H4">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I4">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J4">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.04547765709317</v>
+        <v>0.7454163333333333</v>
       </c>
       <c r="N4">
-        <v>1.04547765709317</v>
+        <v>2.236249</v>
       </c>
       <c r="O4">
-        <v>0.03034321473097013</v>
+        <v>0.01838271206698645</v>
       </c>
       <c r="P4">
-        <v>0.03034321473097013</v>
+        <v>0.01838271206698644</v>
       </c>
       <c r="Q4">
-        <v>8.261036025479926</v>
+        <v>7.212535138050667</v>
       </c>
       <c r="R4">
-        <v>8.261036025479926</v>
+        <v>64.91281624245599</v>
       </c>
       <c r="S4">
-        <v>0.001528488031865683</v>
+        <v>0.001084414678405259</v>
       </c>
       <c r="T4">
-        <v>0.001528488031865683</v>
+        <v>0.001084414678405259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H5">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I5">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J5">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.97320244330446</v>
+        <v>1.125220666666667</v>
       </c>
       <c r="N5">
-        <v>0.97320244330446</v>
+        <v>3.375662</v>
       </c>
       <c r="O5">
-        <v>0.02824554930805219</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="P5">
-        <v>0.02824554930805219</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="Q5">
-        <v>7.689939990278297</v>
+        <v>10.88746413712533</v>
       </c>
       <c r="R5">
-        <v>7.689939990278297</v>
+        <v>97.987177234128</v>
       </c>
       <c r="S5">
-        <v>0.001422821690239855</v>
+        <v>0.001636945359007362</v>
       </c>
       <c r="T5">
-        <v>0.001422821690239855</v>
+        <v>0.001636945359007362</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H6">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I6">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J6">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.877625490142341</v>
+        <v>0.9795256666666666</v>
       </c>
       <c r="N6">
-        <v>0.877625490142341</v>
+        <v>2.938577</v>
       </c>
       <c r="O6">
-        <v>0.02547159044489152</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="P6">
-        <v>0.02547159044489152</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="Q6">
-        <v>6.934720930434239</v>
+        <v>9.477741462765334</v>
       </c>
       <c r="R6">
-        <v>6.934720930434239</v>
+        <v>85.29967316488799</v>
       </c>
       <c r="S6">
-        <v>0.001283088212399049</v>
+        <v>0.00142499159638488</v>
       </c>
       <c r="T6">
-        <v>0.001283088212399049</v>
+        <v>0.00142499159638488</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.6834392467706</v>
+        <v>9.675848</v>
       </c>
       <c r="H7">
-        <v>29.6834392467706</v>
+        <v>29.027544</v>
       </c>
       <c r="I7">
-        <v>0.189232144279161</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J7">
-        <v>0.189232144279161</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.9110121915341</v>
+        <v>1.027283666666667</v>
       </c>
       <c r="N7">
-        <v>30.9110121915341</v>
+        <v>3.081851</v>
       </c>
       <c r="O7">
-        <v>0.8971396701936101</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="P7">
-        <v>0.8971396701936101</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="Q7">
-        <v>917.5451524435878</v>
+        <v>9.939840611549334</v>
       </c>
       <c r="R7">
-        <v>917.5451524435878</v>
+        <v>89.458565503944</v>
       </c>
       <c r="S7">
-        <v>0.1697676635086361</v>
+        <v>0.001494468845400457</v>
       </c>
       <c r="T7">
-        <v>0.1697676635086361</v>
+        <v>0.001494468845400457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H8">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I8">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J8">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.647754508802609</v>
+        <v>36.01682133333333</v>
       </c>
       <c r="N8">
-        <v>0.647754508802609</v>
+        <v>108.050464</v>
       </c>
       <c r="O8">
-        <v>0.01879997532247603</v>
+        <v>0.888210824651586</v>
       </c>
       <c r="P8">
-        <v>0.01879997532247603</v>
+        <v>0.8882108246515859</v>
       </c>
       <c r="Q8">
-        <v>19.22758160886398</v>
+        <v>1072.99189123808</v>
       </c>
       <c r="R8">
-        <v>19.22758160886398</v>
+        <v>9656.927021142721</v>
       </c>
       <c r="S8">
-        <v>0.00355755964266745</v>
+        <v>0.1613258215588911</v>
       </c>
       <c r="T8">
-        <v>0.00355755964266745</v>
+        <v>0.1613258215588911</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H9">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I9">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J9">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.04547765709317</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N9">
-        <v>1.04547765709317</v>
+        <v>1.966766</v>
       </c>
       <c r="O9">
-        <v>0.03034321473097013</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="P9">
-        <v>0.03034321473097013</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="Q9">
-        <v>31.03337251818118</v>
+        <v>19.53091076002</v>
       </c>
       <c r="R9">
-        <v>31.03337251818118</v>
+        <v>175.77819684018</v>
       </c>
       <c r="S9">
-        <v>0.005741911587864504</v>
+        <v>0.002936499567129059</v>
       </c>
       <c r="T9">
-        <v>0.005741911587864504</v>
+        <v>0.002936499567129059</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H10">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I10">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J10">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.97320244330446</v>
+        <v>0.7454163333333333</v>
       </c>
       <c r="N10">
-        <v>0.97320244330446</v>
+        <v>2.236249</v>
       </c>
       <c r="O10">
-        <v>0.02824554930805219</v>
+        <v>0.01838271206698645</v>
       </c>
       <c r="P10">
-        <v>0.02824554930805219</v>
+        <v>0.01838271206698644</v>
       </c>
       <c r="Q10">
-        <v>28.88799560063665</v>
+        <v>22.20700360703</v>
       </c>
       <c r="R10">
-        <v>28.88799560063665</v>
+        <v>199.86303246327</v>
       </c>
       <c r="S10">
-        <v>0.005344965861905489</v>
+        <v>0.003338853844581811</v>
       </c>
       <c r="T10">
-        <v>0.005344965861905489</v>
+        <v>0.003338853844581811</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H11">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I11">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J11">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.877625490142341</v>
+        <v>1.125220666666667</v>
       </c>
       <c r="N11">
-        <v>0.877625490142341</v>
+        <v>3.375662</v>
       </c>
       <c r="O11">
-        <v>0.02547159044489152</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="P11">
-        <v>0.02547159044489152</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="Q11">
-        <v>26.05094291805745</v>
+        <v>33.52191022114</v>
       </c>
       <c r="R11">
-        <v>26.05094291805745</v>
+        <v>301.6971919902601</v>
       </c>
       <c r="S11">
-        <v>0.004820043678087411</v>
+        <v>0.00504006577385109</v>
       </c>
       <c r="T11">
-        <v>0.004820043678087411</v>
+        <v>0.00504006577385109</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.6616182770752</v>
+        <v>29.79141</v>
       </c>
       <c r="H12">
-        <v>29.6616182770752</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I12">
-        <v>0.1890930354363014</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J12">
-        <v>0.1890930354363014</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.9110121915341</v>
+        <v>0.9795256666666666</v>
       </c>
       <c r="N12">
-        <v>30.9110121915341</v>
+        <v>2.938577</v>
       </c>
       <c r="O12">
-        <v>0.8971396701936101</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="P12">
-        <v>0.8971396701936101</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="Q12">
-        <v>916.8706441833021</v>
+        <v>29.18145074119</v>
       </c>
       <c r="R12">
-        <v>916.8706441833021</v>
+        <v>262.63305667071</v>
       </c>
       <c r="S12">
-        <v>0.1696428634472321</v>
+        <v>0.004387471660825643</v>
       </c>
       <c r="T12">
-        <v>0.1696428634472321</v>
+        <v>0.004387471660825644</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.6616182770752</v>
+        <v>29.79141</v>
       </c>
       <c r="H13">
-        <v>29.6616182770752</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I13">
-        <v>0.1890930354363014</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J13">
-        <v>0.1890930354363014</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.647754508802609</v>
+        <v>1.027283666666667</v>
       </c>
       <c r="N13">
-        <v>0.647754508802609</v>
+        <v>3.081851</v>
       </c>
       <c r="O13">
-        <v>0.01879997532247603</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="P13">
-        <v>0.01879997532247603</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="Q13">
-        <v>19.21344697735734</v>
+        <v>30.60422889997</v>
       </c>
       <c r="R13">
-        <v>19.21344697735734</v>
+        <v>275.4380600997301</v>
       </c>
       <c r="S13">
-        <v>0.003554944399854551</v>
+        <v>0.004601388333668701</v>
       </c>
       <c r="T13">
-        <v>0.003554944399854551</v>
+        <v>0.004601388333668702</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H14">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I14">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J14">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.04547765709317</v>
+        <v>36.01682133333333</v>
       </c>
       <c r="N14">
-        <v>1.04547765709317</v>
+        <v>108.050464</v>
       </c>
       <c r="O14">
-        <v>0.03034321473097013</v>
+        <v>0.888210824651586</v>
       </c>
       <c r="P14">
-        <v>0.03034321473097013</v>
+        <v>0.8882108246515859</v>
       </c>
       <c r="Q14">
-        <v>31.01055918190853</v>
+        <v>1191.948897040597</v>
       </c>
       <c r="R14">
-        <v>31.01055918190853</v>
+        <v>10727.54007336538</v>
       </c>
       <c r="S14">
-        <v>0.005737690578374639</v>
+        <v>0.1792111726486681</v>
       </c>
       <c r="T14">
-        <v>0.005737690578374639</v>
+        <v>0.179211172648668</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H15">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I15">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J15">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.97320244330446</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N15">
-        <v>0.97320244330446</v>
+        <v>1.966766</v>
       </c>
       <c r="O15">
-        <v>0.02824554930805219</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="P15">
-        <v>0.02824554930805219</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="Q15">
-        <v>28.86675937961381</v>
+        <v>21.69620080888267</v>
       </c>
       <c r="R15">
-        <v>28.86675937961381</v>
+        <v>195.265807279944</v>
       </c>
       <c r="S15">
-        <v>0.005341036656225312</v>
+        <v>0.003262053934220313</v>
       </c>
       <c r="T15">
-        <v>0.005341036656225312</v>
+        <v>0.003262053934220313</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.6616182770752</v>
+        <v>33.094228</v>
       </c>
       <c r="H16">
-        <v>29.6616182770752</v>
+        <v>99.282684</v>
       </c>
       <c r="I16">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J16">
-        <v>0.1890930354363014</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.877625490142341</v>
+        <v>0.7454163333333333</v>
       </c>
       <c r="N16">
-        <v>0.877625490142341</v>
+        <v>2.236249</v>
       </c>
       <c r="O16">
-        <v>0.02547159044489152</v>
+        <v>0.01838271206698645</v>
       </c>
       <c r="P16">
-        <v>0.02547159044489152</v>
+        <v>0.01838271206698644</v>
       </c>
       <c r="Q16">
-        <v>26.03179227883314</v>
+        <v>24.66897809025733</v>
       </c>
       <c r="R16">
-        <v>26.03179227883314</v>
+        <v>222.020802812316</v>
       </c>
       <c r="S16">
-        <v>0.004816500354614829</v>
+        <v>0.003709015128564476</v>
       </c>
       <c r="T16">
-        <v>0.004816500354614829</v>
+        <v>0.003709015128564476</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>36.5874850209747</v>
+        <v>33.094228</v>
       </c>
       <c r="H17">
-        <v>36.5874850209747</v>
+        <v>99.282684</v>
       </c>
       <c r="I17">
-        <v>0.2332454870455744</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J17">
-        <v>0.2332454870455744</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.9110121915341</v>
+        <v>1.125220666666667</v>
       </c>
       <c r="N17">
-        <v>30.9110121915341</v>
+        <v>3.375662</v>
       </c>
       <c r="O17">
-        <v>0.8971396701936101</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="P17">
-        <v>0.8971396701936101</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="Q17">
-        <v>1130.95619554092</v>
+        <v>37.23830929297867</v>
       </c>
       <c r="R17">
-        <v>1130.95619554092</v>
+        <v>335.144783636808</v>
       </c>
       <c r="S17">
-        <v>0.2092537793222146</v>
+        <v>0.005598831537507771</v>
       </c>
       <c r="T17">
-        <v>0.2092537793222146</v>
+        <v>0.005598831537507771</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>36.5874850209747</v>
+        <v>33.094228</v>
       </c>
       <c r="H18">
-        <v>36.5874850209747</v>
+        <v>99.282684</v>
       </c>
       <c r="I18">
-        <v>0.2332454870455744</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J18">
-        <v>0.2332454870455744</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.647754508802609</v>
+        <v>0.9795256666666666</v>
       </c>
       <c r="N18">
-        <v>0.647754508802609</v>
+        <v>2.938577</v>
       </c>
       <c r="O18">
-        <v>0.01879997532247603</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="P18">
-        <v>0.01879997532247603</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="Q18">
-        <v>23.69970838808428</v>
+        <v>32.41664574451867</v>
       </c>
       <c r="R18">
-        <v>23.69970838808428</v>
+        <v>291.749811700668</v>
       </c>
       <c r="S18">
-        <v>0.004385009400535701</v>
+        <v>0.004873887724243415</v>
       </c>
       <c r="T18">
-        <v>0.004385009400535701</v>
+        <v>0.004873887724243415</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>36.5874850209747</v>
+        <v>33.094228</v>
       </c>
       <c r="H19">
-        <v>36.5874850209747</v>
+        <v>99.282684</v>
       </c>
       <c r="I19">
-        <v>0.2332454870455744</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J19">
-        <v>0.2332454870455744</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.04547765709317</v>
+        <v>1.027283666666667</v>
       </c>
       <c r="N19">
-        <v>1.04547765709317</v>
+        <v>3.081851</v>
       </c>
       <c r="O19">
-        <v>0.03034321473097013</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="P19">
-        <v>0.03034321473097013</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="Q19">
-        <v>38.25139811866008</v>
+        <v>33.99715988534267</v>
       </c>
       <c r="R19">
-        <v>38.25139811866008</v>
+        <v>305.974438968084</v>
       </c>
       <c r="S19">
-        <v>0.007077417898453576</v>
+        <v>0.005111520221129919</v>
       </c>
       <c r="T19">
-        <v>0.007077417898453576</v>
+        <v>0.005111520221129919</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H20">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I20">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J20">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.97320244330446</v>
+        <v>36.01682133333333</v>
       </c>
       <c r="N20">
-        <v>0.97320244330446</v>
+        <v>108.050464</v>
       </c>
       <c r="O20">
-        <v>0.02824554930805219</v>
+        <v>0.888210824651586</v>
       </c>
       <c r="P20">
-        <v>0.02824554930805219</v>
+        <v>0.8882108246515859</v>
       </c>
       <c r="Q20">
-        <v>35.60702981677791</v>
+        <v>1344.704111993529</v>
       </c>
       <c r="R20">
-        <v>35.60702981677791</v>
+        <v>12102.33700794176</v>
       </c>
       <c r="S20">
-        <v>0.006588146905226421</v>
+        <v>0.2021781314401755</v>
       </c>
       <c r="T20">
-        <v>0.006588146905226421</v>
+        <v>0.2021781314401755</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.5874850209747</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H21">
-        <v>36.5874850209747</v>
+        <v>112.00634</v>
       </c>
       <c r="I21">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J21">
-        <v>0.2332454870455744</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.877625490142341</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N21">
-        <v>0.877625490142341</v>
+        <v>1.966766</v>
       </c>
       <c r="O21">
-        <v>0.02547159044489152</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="P21">
-        <v>0.02547159044489152</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="Q21">
-        <v>32.11010947460848</v>
+        <v>24.47669569960444</v>
       </c>
       <c r="R21">
-        <v>32.11010947460848</v>
+        <v>220.29026129644</v>
       </c>
       <c r="S21">
-        <v>0.005941133519144122</v>
+        <v>0.003680105203991241</v>
       </c>
       <c r="T21">
-        <v>0.005941133519144122</v>
+        <v>0.003680105203991242</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>40.1590691026041</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H22">
-        <v>40.1590691026041</v>
+        <v>112.00634</v>
       </c>
       <c r="I22">
-        <v>0.2560143619263239</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J22">
-        <v>0.2560143619263239</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>30.9110121915341</v>
+        <v>0.7454163333333333</v>
       </c>
       <c r="N22">
-        <v>30.9110121915341</v>
+        <v>2.236249</v>
       </c>
       <c r="O22">
-        <v>0.8971396701936101</v>
+        <v>0.01838271206698645</v>
       </c>
       <c r="P22">
-        <v>0.8971396701936101</v>
+        <v>0.01838271206698644</v>
       </c>
       <c r="Q22">
-        <v>1241.357474631256</v>
+        <v>27.83045175762889</v>
       </c>
       <c r="R22">
-        <v>1241.357474631256</v>
+        <v>250.47406581866</v>
       </c>
       <c r="S22">
-        <v>0.2296806402234098</v>
+        <v>0.004184347086699795</v>
       </c>
       <c r="T22">
-        <v>0.2296806402234098</v>
+        <v>0.004184347086699795</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>40.1590691026041</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H23">
-        <v>40.1590691026041</v>
+        <v>112.00634</v>
       </c>
       <c r="I23">
-        <v>0.2560143619263239</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J23">
-        <v>0.2560143619263239</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.647754508802609</v>
+        <v>1.125220666666667</v>
       </c>
       <c r="N23">
-        <v>0.647754508802609</v>
+        <v>3.375662</v>
       </c>
       <c r="O23">
-        <v>0.01879997532247603</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="P23">
-        <v>0.01879997532247603</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="Q23">
-        <v>26.01321808052735</v>
+        <v>42.01061618856444</v>
       </c>
       <c r="R23">
-        <v>26.01321808052735</v>
+        <v>378.09554569708</v>
       </c>
       <c r="S23">
-        <v>0.004813063686414335</v>
+        <v>0.006316354509441124</v>
       </c>
       <c r="T23">
-        <v>0.004813063686414335</v>
+        <v>0.006316354509441124</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>40.1590691026041</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H24">
-        <v>40.1590691026041</v>
+        <v>112.00634</v>
       </c>
       <c r="I24">
-        <v>0.2560143619263239</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J24">
-        <v>0.2560143619263239</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.04547765709317</v>
+        <v>0.9795256666666666</v>
       </c>
       <c r="N24">
-        <v>1.04547765709317</v>
+        <v>2.938577</v>
       </c>
       <c r="O24">
-        <v>0.03034321473097013</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="P24">
-        <v>0.03034321473097013</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="Q24">
-        <v>41.98540947643325</v>
+        <v>36.57102828646444</v>
       </c>
       <c r="R24">
-        <v>41.98540947643325</v>
+        <v>329.13925457818</v>
       </c>
       <c r="S24">
-        <v>0.007768298758142752</v>
+        <v>0.005498504911122608</v>
       </c>
       <c r="T24">
-        <v>0.007768298758142752</v>
+        <v>0.005498504911122609</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>40.1590691026041</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H25">
-        <v>40.1590691026041</v>
+        <v>112.00634</v>
       </c>
       <c r="I25">
-        <v>0.2560143619263239</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J25">
-        <v>0.2560143619263239</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.97320244330446</v>
+        <v>1.027283666666667</v>
       </c>
       <c r="N25">
-        <v>0.97320244330446</v>
+        <v>3.081851</v>
       </c>
       <c r="O25">
-        <v>0.02824554930805219</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="P25">
-        <v>0.02824554930805219</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="Q25">
-        <v>39.08290417148696</v>
+        <v>38.35409454837111</v>
       </c>
       <c r="R25">
-        <v>39.08290417148696</v>
+        <v>345.18685093534</v>
       </c>
       <c r="S25">
-        <v>0.007231266283359503</v>
+        <v>0.005766591400820234</v>
       </c>
       <c r="T25">
-        <v>0.007231266283359503</v>
+        <v>0.005766591400820235</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.1590691026041</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H26">
-        <v>40.1590691026041</v>
+        <v>120.867256</v>
       </c>
       <c r="I26">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J26">
-        <v>0.2560143619263239</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.877625490142341</v>
+        <v>36.01682133333333</v>
       </c>
       <c r="N26">
-        <v>0.877625490142341</v>
+        <v>108.050464</v>
       </c>
       <c r="O26">
-        <v>0.02547159044489152</v>
+        <v>0.888210824651586</v>
       </c>
       <c r="P26">
-        <v>0.02547159044489152</v>
+        <v>0.8882108246515859</v>
       </c>
       <c r="Q26">
-        <v>35.24462270483307</v>
+        <v>1451.084788134087</v>
       </c>
       <c r="R26">
-        <v>35.24462270483307</v>
+        <v>13059.76309320678</v>
       </c>
       <c r="S26">
-        <v>0.006521092974997552</v>
+        <v>0.2181726138929398</v>
       </c>
       <c r="T26">
-        <v>0.006521092974997552</v>
+        <v>0.2181726138929398</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.8692659796151</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H27">
-        <v>12.8692659796151</v>
+        <v>120.867256</v>
       </c>
       <c r="I27">
-        <v>0.08204166560269355</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J27">
-        <v>0.08204166560269355</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>30.9110121915341</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N27">
-        <v>30.9110121915341</v>
+        <v>1.966766</v>
       </c>
       <c r="O27">
-        <v>0.8971396701936101</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="P27">
-        <v>0.8971396701936101</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="Q27">
-        <v>397.8020375919774</v>
+        <v>26.41306773489956</v>
       </c>
       <c r="R27">
-        <v>397.8020375919774</v>
+        <v>237.717609614096</v>
       </c>
       <c r="S27">
-        <v>0.07360283282093494</v>
+        <v>0.003971241429706047</v>
       </c>
       <c r="T27">
-        <v>0.07360283282093494</v>
+        <v>0.003971241429706047</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.8692659796151</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H28">
-        <v>12.8692659796151</v>
+        <v>120.867256</v>
       </c>
       <c r="I28">
-        <v>0.08204166560269355</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J28">
-        <v>0.08204166560269355</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.647754508802609</v>
+        <v>0.7454163333333333</v>
       </c>
       <c r="N28">
-        <v>0.647754508802609</v>
+        <v>2.236249</v>
       </c>
       <c r="O28">
-        <v>0.01879997532247603</v>
+        <v>0.01838271206698645</v>
       </c>
       <c r="P28">
-        <v>0.01879997532247603</v>
+        <v>0.01838271206698644</v>
       </c>
       <c r="Q28">
-        <v>8.336125063275706</v>
+        <v>30.03214226252711</v>
       </c>
       <c r="R28">
-        <v>8.336125063275706</v>
+        <v>270.289280362744</v>
       </c>
       <c r="S28">
-        <v>0.001542381288745469</v>
+        <v>0.004515374312927272</v>
       </c>
       <c r="T28">
-        <v>0.001542381288745469</v>
+        <v>0.004515374312927271</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.8692659796151</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H29">
-        <v>12.8692659796151</v>
+        <v>120.867256</v>
       </c>
       <c r="I29">
-        <v>0.08204166560269355</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J29">
-        <v>0.08204166560269355</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.04547765709317</v>
+        <v>1.125220666666667</v>
       </c>
       <c r="N29">
-        <v>1.04547765709317</v>
+        <v>3.375662</v>
       </c>
       <c r="O29">
-        <v>0.03034321473097013</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="P29">
-        <v>0.03034321473097013</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="Q29">
-        <v>13.45453004487684</v>
+        <v>45.33411145816356</v>
       </c>
       <c r="R29">
-        <v>13.45453004487684</v>
+        <v>408.007003123472</v>
       </c>
       <c r="S29">
-        <v>0.002489407876268977</v>
+        <v>0.006816046640568513</v>
       </c>
       <c r="T29">
-        <v>0.002489407876268977</v>
+        <v>0.006816046640568513</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.8692659796151</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H30">
-        <v>12.8692659796151</v>
+        <v>120.867256</v>
       </c>
       <c r="I30">
-        <v>0.08204166560269355</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J30">
-        <v>0.08204166560269355</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.97320244330446</v>
+        <v>0.9795256666666666</v>
       </c>
       <c r="N30">
-        <v>0.97320244330446</v>
+        <v>2.938577</v>
       </c>
       <c r="O30">
-        <v>0.02824554930805219</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="P30">
-        <v>0.02824554930805219</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="Q30">
-        <v>12.52440109489638</v>
+        <v>39.46419317052355</v>
       </c>
       <c r="R30">
-        <v>12.52440109489638</v>
+        <v>355.177738534712</v>
       </c>
       <c r="S30">
-        <v>0.00231731191109561</v>
+        <v>0.005933496270924607</v>
       </c>
       <c r="T30">
-        <v>0.00231731191109561</v>
+        <v>0.005933496270924607</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.8692659796151</v>
+        <v>40.28908533333333</v>
       </c>
       <c r="H31">
-        <v>12.8692659796151</v>
+        <v>120.867256</v>
       </c>
       <c r="I31">
-        <v>0.08204166560269355</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="J31">
-        <v>0.08204166560269355</v>
+        <v>0.2456315638559363</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.877625490142341</v>
+        <v>1.027283666666667</v>
       </c>
       <c r="N31">
-        <v>0.877625490142341</v>
+        <v>3.081851</v>
       </c>
       <c r="O31">
-        <v>0.02547159044489152</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="P31">
-        <v>0.02547159044489152</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="Q31">
-        <v>11.29439586313186</v>
+        <v>41.38831930787289</v>
       </c>
       <c r="R31">
-        <v>11.29439586313186</v>
+        <v>372.494873770856</v>
       </c>
       <c r="S31">
-        <v>0.002089731705648554</v>
+        <v>0.006222791308869997</v>
       </c>
       <c r="T31">
-        <v>0.002089731705648554</v>
+        <v>0.006222791308869997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>13.83640933333333</v>
+      </c>
+      <c r="H32">
+        <v>41.509228</v>
+      </c>
+      <c r="I32">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="J32">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>36.01682133333333</v>
+      </c>
+      <c r="N32">
+        <v>108.050464</v>
+      </c>
+      <c r="O32">
+        <v>0.888210824651586</v>
+      </c>
+      <c r="P32">
+        <v>0.8882108246515859</v>
+      </c>
+      <c r="Q32">
+        <v>498.3434828535325</v>
+      </c>
+      <c r="R32">
+        <v>4485.091345681792</v>
+      </c>
+      <c r="S32">
+        <v>0.07492663499730653</v>
+      </c>
+      <c r="T32">
+        <v>0.07492663499730652</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>13.83640933333333</v>
+      </c>
+      <c r="H33">
+        <v>41.509228</v>
+      </c>
+      <c r="I33">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="J33">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.6555886666666667</v>
+      </c>
+      <c r="N33">
+        <v>1.966766</v>
+      </c>
+      <c r="O33">
+        <v>0.01616747199490695</v>
+      </c>
+      <c r="P33">
+        <v>0.01616747199490695</v>
+      </c>
+      <c r="Q33">
+        <v>9.070993146294223</v>
+      </c>
+      <c r="R33">
+        <v>81.63893831664801</v>
+      </c>
+      <c r="S33">
+        <v>0.001363836421906644</v>
+      </c>
+      <c r="T33">
+        <v>0.001363836421906644</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>13.83640933333333</v>
+      </c>
+      <c r="H34">
+        <v>41.509228</v>
+      </c>
+      <c r="I34">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="J34">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.7454163333333333</v>
+      </c>
+      <c r="N34">
+        <v>2.236249</v>
+      </c>
+      <c r="O34">
+        <v>0.01838271206698645</v>
+      </c>
+      <c r="P34">
+        <v>0.01838271206698644</v>
+      </c>
+      <c r="Q34">
+        <v>10.31388551175245</v>
+      </c>
+      <c r="R34">
+        <v>92.824969605772</v>
+      </c>
+      <c r="S34">
+        <v>0.001550707015807834</v>
+      </c>
+      <c r="T34">
+        <v>0.001550707015807833</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>13.83640933333333</v>
+      </c>
+      <c r="H35">
+        <v>41.509228</v>
+      </c>
+      <c r="I35">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="J35">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.125220666666667</v>
+      </c>
+      <c r="N35">
+        <v>3.375662</v>
+      </c>
+      <c r="O35">
+        <v>0.02774906666541499</v>
+      </c>
+      <c r="P35">
+        <v>0.02774906666541499</v>
+      </c>
+      <c r="Q35">
+        <v>15.56901373432622</v>
+      </c>
+      <c r="R35">
+        <v>140.121123608936</v>
+      </c>
+      <c r="S35">
+        <v>0.002340822845039127</v>
+      </c>
+      <c r="T35">
+        <v>0.002340822845039127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>13.83640933333333</v>
+      </c>
+      <c r="H36">
+        <v>41.509228</v>
+      </c>
+      <c r="I36">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="J36">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.9795256666666666</v>
+      </c>
+      <c r="N36">
+        <v>2.938577</v>
+      </c>
+      <c r="O36">
+        <v>0.02415608229569642</v>
+      </c>
+      <c r="P36">
+        <v>0.02415608229569642</v>
+      </c>
+      <c r="Q36">
+        <v>13.55311807650622</v>
+      </c>
+      <c r="R36">
+        <v>121.978062688556</v>
+      </c>
+      <c r="S36">
+        <v>0.002037730132195268</v>
+      </c>
+      <c r="T36">
+        <v>0.002037730132195268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>13.83640933333333</v>
+      </c>
+      <c r="H37">
+        <v>41.509228</v>
+      </c>
+      <c r="I37">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="J37">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.027283666666667</v>
+      </c>
+      <c r="N37">
+        <v>3.081851</v>
+      </c>
+      <c r="O37">
+        <v>0.02533384232540931</v>
+      </c>
+      <c r="P37">
+        <v>0.02533384232540931</v>
+      </c>
+      <c r="Q37">
+        <v>14.21391731344756</v>
+      </c>
+      <c r="R37">
+        <v>127.925255821028</v>
+      </c>
+      <c r="S37">
+        <v>0.002137082215520001</v>
+      </c>
+      <c r="T37">
+        <v>0.002137082215520001</v>
       </c>
     </row>
   </sheetData>
